--- a/Documentation/hyo/hyo_汇总表.xlsx
+++ b/Documentation/hyo/hyo_汇总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>编号</t>
   </si>
@@ -33,22 +33,13 @@
     <t>备注说明</t>
   </si>
   <si>
-    <t>运动场地维护系统</t>
-  </si>
-  <si>
     <t>Flyweight</t>
   </si>
   <si>
-    <t>海报工场</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
     <t>Business delegate</t>
-  </si>
-  <si>
-    <t>田径大赛观众服务中心</t>
   </si>
   <si>
     <t>与State一起</t>
@@ -60,6 +51,22 @@
   </si>
   <si>
     <t>与Template method一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动场地维护系统中，场地的维护方法设计为模板，实现灵活性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海报工场中，海报的生成过程由相似的对象快速引用，从而实现相似对象的减少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动场地维护系统中，场地的状态实现了多态，有一个基类State，下属子类为各种状态。通过改变指针切换状态及其对应策略。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田径大赛观众服务中心中，通过设计Service、Delegate、Client三个层以达到业务层分离的目的。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +487,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -491,7 +498,7 @@
     <col min="5" max="5" width="55.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,67 +515,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
     </row>
